--- a/pred_ohlcv/54_21/2020-01-19 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 IOST ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-257341.7566435701</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-270420.8509435701</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-261179.6115435701</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-127829.2946435701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>156756.7856564299</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>155535.7856564299</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>159298.3241564299</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>601394.7987564299</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1128842.82415643</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>870673.51895643</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>951629.66765643</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1108543.47315643</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1100828.92445643</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1100928.92445643</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1100526.91365643</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>944763.29595643</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>958549.5382564301</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>755905.1070564301</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>578884.1696564301</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>576214.1696564301</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>943355.0242564301</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>943711.76085643</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>845711.76085643</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>859352.15595643</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>873978.05235643</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>842513.52465643</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>850230.0751564299</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>773187.8897564298</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>760140.1115564299</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-483975.7991435701</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-462485.7991435701</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-468285.7991435701</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>179109.7027564299</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>179265.4973564299</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>365671.1138764199</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1236483.45967642</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1356483.45967642</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1348942.61067642</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1623294.10427642</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1639376.55947642</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1490857.25577642</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1400735.42227642</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1419819.31227642</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1834871.65277642</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1835933.50797642</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1720772.98707642</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1795353.91197642</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 IOST ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-127829.2946435701</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>156756.7856564299</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>155535.7856564299</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>159298.3241564299</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>601394.7987564299</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1047255.94655643</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1074549.00445643</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1128842.82415643</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1128842.82415643</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>870673.51895643</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>951629.66765643</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1108543.47315643</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1100828.92445643</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1100928.92445643</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1100526.91365643</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>944763.29595643</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>958549.5382564301</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>755905.1070564301</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>578884.1696564301</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>576214.1696564301</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>943355.0242564301</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>943711.76085643</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>845711.76085643</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>859352.15595643</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>850230.0751564299</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>773187.8897564298</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>760140.1115564299</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>759777.6115564299</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>179109.7027564299</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>179265.4973564299</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>365671.1138764199</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1236483.45967642</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1356483.45967642</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1348942.61067642</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1623294.10427642</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1639376.55947642</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1490857.25577642</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1400735.42227642</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1419819.31227642</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1834871.65277642</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1835933.50797642</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1720772.98707642</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1795353.91197642</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
